--- a/REGULAR/ANGCAYA, RAYMUNDO.xlsx
+++ b/REGULAR/ANGCAYA, RAYMUNDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13665871-948D-45B7-B866-A05BAE5E8A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
   <si>
     <t>PERIOD</t>
   </si>
@@ -455,11 +454,17 @@
   <si>
     <t>2023</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1131,7 +1136,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1148,25 +1153,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K626" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K627" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1473,34 +1478,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K626"/>
+  <dimension ref="A2:K627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A352" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E358" sqref="E358"/>
+      <pane ySplit="3570" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1526,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +1544,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1564,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1567,7 +1572,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1580,7 +1585,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1597,7 +1602,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1641,7 +1646,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>140.87700000000001</v>
+        <v>152.12700000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1651,12 +1656,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261.08299999999997</v>
+        <v>277.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1678,7 +1683,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35749</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35765</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1741,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35796</v>
       </c>
@@ -1756,7 +1761,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35827</v>
       </c>
@@ -1776,7 +1781,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35855</v>
       </c>
@@ -1796,7 +1801,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35886</v>
       </c>
@@ -1816,7 +1821,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35916</v>
       </c>
@@ -1836,7 +1841,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35947</v>
       </c>
@@ -1856,7 +1861,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35977</v>
       </c>
@@ -1876,7 +1881,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36008</v>
       </c>
@@ -1896,7 +1901,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36039</v>
       </c>
@@ -1916,7 +1921,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36069</v>
       </c>
@@ -1936,7 +1941,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36100</v>
       </c>
@@ -1956,7 +1961,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36130</v>
       </c>
@@ -1980,7 +1985,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>45</v>
       </c>
@@ -1998,7 +2003,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36161</v>
       </c>
@@ -2018,7 +2023,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36192</v>
       </c>
@@ -2038,7 +2043,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36220</v>
       </c>
@@ -2058,7 +2063,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36251</v>
       </c>
@@ -2078,7 +2083,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36281</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36312</v>
       </c>
@@ -2118,7 +2123,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36342</v>
       </c>
@@ -2138,7 +2143,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36373</v>
       </c>
@@ -2158,7 +2163,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36404</v>
       </c>
@@ -2178,7 +2183,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36434</v>
       </c>
@@ -2198,7 +2203,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36465</v>
       </c>
@@ -2218,7 +2223,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36495</v>
       </c>
@@ -2242,7 +2247,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>46</v>
       </c>
@@ -2260,7 +2265,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36526</v>
       </c>
@@ -2280,7 +2285,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36557</v>
       </c>
@@ -2300,7 +2305,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36586</v>
       </c>
@@ -2320,7 +2325,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36617</v>
       </c>
@@ -2340,7 +2345,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36647</v>
       </c>
@@ -2360,7 +2365,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36678</v>
       </c>
@@ -2380,7 +2385,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36708</v>
       </c>
@@ -2400,7 +2405,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36739</v>
       </c>
@@ -2420,7 +2425,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36770</v>
       </c>
@@ -2440,7 +2445,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36800</v>
       </c>
@@ -2460,7 +2465,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36831</v>
       </c>
@@ -2480,7 +2485,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36861</v>
       </c>
@@ -2504,7 +2509,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>47</v>
       </c>
@@ -2522,7 +2527,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36892</v>
       </c>
@@ -2542,7 +2547,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36923</v>
       </c>
@@ -2562,7 +2567,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36951</v>
       </c>
@@ -2582,7 +2587,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36982</v>
       </c>
@@ -2606,7 +2611,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37012</v>
       </c>
@@ -2626,7 +2631,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37043</v>
       </c>
@@ -2646,7 +2651,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37073</v>
       </c>
@@ -2666,7 +2671,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37104</v>
       </c>
@@ -2686,7 +2691,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37135</v>
       </c>
@@ -2706,7 +2711,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37165</v>
       </c>
@@ -2726,7 +2731,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37196</v>
       </c>
@@ -2746,7 +2751,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37226</v>
       </c>
@@ -2766,7 +2771,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>48</v>
       </c>
@@ -2784,7 +2789,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37257</v>
       </c>
@@ -2804,7 +2809,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37288</v>
       </c>
@@ -2824,7 +2829,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37316</v>
       </c>
@@ -2844,7 +2849,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37347</v>
       </c>
@@ -2864,7 +2869,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37377</v>
       </c>
@@ -2884,7 +2889,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37408</v>
       </c>
@@ -2904,7 +2909,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37438</v>
       </c>
@@ -2924,7 +2929,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37469</v>
       </c>
@@ -2944,7 +2949,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37500</v>
       </c>
@@ -2964,7 +2969,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37530</v>
       </c>
@@ -2988,7 +2993,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37561</v>
       </c>
@@ -3008,7 +3013,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37591</v>
       </c>
@@ -3032,7 +3037,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>49</v>
       </c>
@@ -3050,7 +3055,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37622</v>
       </c>
@@ -3070,7 +3075,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37653</v>
       </c>
@@ -3090,7 +3095,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37681</v>
       </c>
@@ -3116,7 +3121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37712</v>
       </c>
@@ -3136,7 +3141,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37742</v>
       </c>
@@ -3156,7 +3161,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37773</v>
       </c>
@@ -3176,7 +3181,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37803</v>
       </c>
@@ -3196,7 +3201,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37834</v>
       </c>
@@ -3216,7 +3221,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37865</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37895</v>
       </c>
@@ -3262,7 +3267,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37926</v>
       </c>
@@ -3288,7 +3293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>61</v>
@@ -3305,7 +3310,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37956</v>
       </c>
@@ -3329,7 +3334,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>50</v>
       </c>
@@ -3347,7 +3352,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37987</v>
       </c>
@@ -3373,7 +3378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38018</v>
       </c>
@@ -3393,7 +3398,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38047</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38078</v>
       </c>
@@ -3439,7 +3444,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38108</v>
       </c>
@@ -3459,7 +3464,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38139</v>
       </c>
@@ -3479,7 +3484,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38169</v>
       </c>
@@ -3499,7 +3504,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38200</v>
       </c>
@@ -3519,7 +3524,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38231</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>70</v>
@@ -3562,7 +3567,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>71</v>
@@ -3579,7 +3584,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38261</v>
       </c>
@@ -3599,7 +3604,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38292</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38322</v>
       </c>
@@ -3645,7 +3650,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>51</v>
       </c>
@@ -3663,7 +3668,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38353</v>
       </c>
@@ -3689,7 +3694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>63</v>
@@ -3706,7 +3711,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38384</v>
       </c>
@@ -3726,7 +3731,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38412</v>
       </c>
@@ -3750,7 +3755,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38443</v>
       </c>
@@ -3772,7 +3777,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>78</v>
@@ -3789,7 +3794,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38473</v>
       </c>
@@ -3809,7 +3814,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38504</v>
       </c>
@@ -3829,7 +3834,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38534</v>
       </c>
@@ -3849,7 +3854,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38565</v>
       </c>
@@ -3869,7 +3874,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38596</v>
       </c>
@@ -3889,7 +3894,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38626</v>
       </c>
@@ -3909,7 +3914,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38657</v>
       </c>
@@ -3935,7 +3940,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38687</v>
       </c>
@@ -3959,7 +3964,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>52</v>
       </c>
@@ -3977,7 +3982,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38718</v>
       </c>
@@ -4001,7 +4006,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38749</v>
       </c>
@@ -4021,7 +4026,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38777</v>
       </c>
@@ -4041,7 +4046,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38808</v>
       </c>
@@ -4061,7 +4066,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38838</v>
       </c>
@@ -4085,7 +4090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38869</v>
       </c>
@@ -4109,7 +4114,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38899</v>
       </c>
@@ -4133,7 +4138,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38930</v>
       </c>
@@ -4153,7 +4158,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38961</v>
       </c>
@@ -4173,7 +4178,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38991</v>
       </c>
@@ -4193,7 +4198,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39022</v>
       </c>
@@ -4213,7 +4218,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39052</v>
       </c>
@@ -4237,7 +4242,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15" t="s">
         <v>87</v>
@@ -4254,7 +4259,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="50" t="s">
         <v>83</v>
       </c>
@@ -4272,7 +4277,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39083</v>
       </c>
@@ -4292,7 +4297,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39114</v>
       </c>
@@ -4312,7 +4317,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39142</v>
       </c>
@@ -4336,7 +4341,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39173</v>
       </c>
@@ -4360,7 +4365,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39203</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>91</v>
@@ -4405,7 +4410,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39234</v>
       </c>
@@ -4425,7 +4430,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39264</v>
       </c>
@@ -4445,7 +4450,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39295</v>
       </c>
@@ -4465,7 +4470,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39326</v>
       </c>
@@ -4485,7 +4490,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39356</v>
       </c>
@@ -4505,7 +4510,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39387</v>
       </c>
@@ -4525,7 +4530,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39417</v>
       </c>
@@ -4551,7 +4556,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>94</v>
@@ -4570,7 +4575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>95</v>
@@ -4587,7 +4592,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>84</v>
       </c>
@@ -4605,7 +4610,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39448</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>98</v>
@@ -4648,7 +4653,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39479</v>
       </c>
@@ -4672,7 +4677,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39508</v>
       </c>
@@ -4698,7 +4703,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>91</v>
@@ -4717,7 +4722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>100</v>
@@ -4734,7 +4739,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39539</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>101</v>
@@ -4779,7 +4784,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>102</v>
@@ -4798,7 +4803,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39569</v>
       </c>
@@ -4818,7 +4823,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39600</v>
       </c>
@@ -4842,7 +4847,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39630</v>
       </c>
@@ -4866,7 +4871,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39661</v>
       </c>
@@ -4890,7 +4895,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39692</v>
       </c>
@@ -4914,7 +4919,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39722</v>
       </c>
@@ -4934,7 +4939,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39753</v>
       </c>
@@ -4954,7 +4959,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39783</v>
       </c>
@@ -4974,7 +4979,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="48" t="s">
         <v>113</v>
       </c>
@@ -4992,7 +4997,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39814</v>
       </c>
@@ -5012,7 +5017,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39845</v>
       </c>
@@ -5032,7 +5037,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39873</v>
       </c>
@@ -5052,7 +5057,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39904</v>
       </c>
@@ -5072,7 +5077,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39934</v>
       </c>
@@ -5092,7 +5097,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39965</v>
       </c>
@@ -5112,7 +5117,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39995</v>
       </c>
@@ -5132,7 +5137,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40026</v>
       </c>
@@ -5152,7 +5157,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40057</v>
       </c>
@@ -5172,7 +5177,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40087</v>
       </c>
@@ -5192,7 +5197,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40118</v>
       </c>
@@ -5212,7 +5217,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40148</v>
       </c>
@@ -5236,7 +5241,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="48" t="s">
         <v>114</v>
       </c>
@@ -5254,7 +5259,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40179</v>
       </c>
@@ -5274,7 +5279,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40210</v>
       </c>
@@ -5294,7 +5299,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40238</v>
       </c>
@@ -5320,7 +5325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40269</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40299</v>
       </c>
@@ -5366,7 +5371,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40330</v>
       </c>
@@ -5386,7 +5391,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40360</v>
       </c>
@@ -5406,7 +5411,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40391</v>
       </c>
@@ -5426,7 +5431,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40422</v>
       </c>
@@ -5446,7 +5451,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40452</v>
       </c>
@@ -5466,7 +5471,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40483</v>
       </c>
@@ -5486,7 +5491,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>40513</v>
       </c>
@@ -5506,7 +5511,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="48" t="s">
         <v>115</v>
       </c>
@@ -5524,7 +5529,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40544</v>
       </c>
@@ -5544,7 +5549,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40575</v>
       </c>
@@ -5564,7 +5569,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40603</v>
       </c>
@@ -5584,7 +5589,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40634</v>
       </c>
@@ -5604,7 +5609,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40664</v>
       </c>
@@ -5624,7 +5629,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40695</v>
       </c>
@@ -5644,7 +5649,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40725</v>
       </c>
@@ -5664,7 +5669,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40756</v>
       </c>
@@ -5684,7 +5689,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40787</v>
       </c>
@@ -5704,7 +5709,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40817</v>
       </c>
@@ -5724,7 +5729,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40848</v>
       </c>
@@ -5744,7 +5749,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40878</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>116</v>
       </c>
@@ -5788,7 +5793,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40909</v>
       </c>
@@ -5808,7 +5813,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>40940</v>
       </c>
@@ -5828,7 +5833,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40969</v>
       </c>
@@ -5848,7 +5853,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41000</v>
       </c>
@@ -5868,7 +5873,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41030</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41061</v>
       </c>
@@ -5914,7 +5919,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41091</v>
       </c>
@@ -5934,7 +5939,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41122</v>
       </c>
@@ -5954,7 +5959,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41153</v>
       </c>
@@ -5974,7 +5979,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41183</v>
       </c>
@@ -5994,7 +5999,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41214</v>
       </c>
@@ -6014,7 +6019,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41244</v>
       </c>
@@ -6038,7 +6043,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="48" t="s">
         <v>117</v>
       </c>
@@ -6056,7 +6061,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41275</v>
       </c>
@@ -6076,7 +6081,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41306</v>
       </c>
@@ -6096,7 +6101,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41334</v>
       </c>
@@ -6116,7 +6121,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41365</v>
       </c>
@@ -6142,7 +6147,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41395</v>
       </c>
@@ -6162,7 +6167,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41426</v>
       </c>
@@ -6182,7 +6187,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41456</v>
       </c>
@@ -6202,7 +6207,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41487</v>
       </c>
@@ -6222,7 +6227,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41518</v>
       </c>
@@ -6242,7 +6247,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41548</v>
       </c>
@@ -6268,7 +6273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41579</v>
       </c>
@@ -6288,7 +6293,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41609</v>
       </c>
@@ -6312,7 +6317,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="48" t="s">
         <v>118</v>
       </c>
@@ -6330,7 +6335,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41640</v>
       </c>
@@ -6350,7 +6355,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41671</v>
       </c>
@@ -6370,7 +6375,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41699</v>
       </c>
@@ -6390,7 +6395,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41730</v>
       </c>
@@ -6410,7 +6415,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41760</v>
       </c>
@@ -6430,7 +6435,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41791</v>
       </c>
@@ -6450,7 +6455,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41821</v>
       </c>
@@ -6470,7 +6475,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41852</v>
       </c>
@@ -6490,7 +6495,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41883</v>
       </c>
@@ -6510,7 +6515,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41913</v>
       </c>
@@ -6530,7 +6535,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41944</v>
       </c>
@@ -6550,7 +6555,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41974</v>
       </c>
@@ -6574,7 +6579,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="48" t="s">
         <v>119</v>
       </c>
@@ -6592,7 +6597,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42005</v>
       </c>
@@ -6612,7 +6617,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42036</v>
       </c>
@@ -6632,7 +6637,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>42064</v>
       </c>
@@ -6652,7 +6657,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>42095</v>
       </c>
@@ -6672,7 +6677,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42125</v>
       </c>
@@ -6692,7 +6697,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42156</v>
       </c>
@@ -6712,7 +6717,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>42186</v>
       </c>
@@ -6732,7 +6737,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42217</v>
       </c>
@@ -6752,7 +6757,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42248</v>
       </c>
@@ -6772,7 +6777,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42278</v>
       </c>
@@ -6792,7 +6797,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42309</v>
       </c>
@@ -6812,7 +6817,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>42339</v>
       </c>
@@ -6836,7 +6841,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="48" t="s">
         <v>120</v>
       </c>
@@ -6854,7 +6859,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42370</v>
       </c>
@@ -6874,7 +6879,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42401</v>
       </c>
@@ -6894,7 +6899,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42430</v>
       </c>
@@ -6914,7 +6919,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42461</v>
       </c>
@@ -6934,7 +6939,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42491</v>
       </c>
@@ -6954,7 +6959,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42522</v>
       </c>
@@ -6974,7 +6979,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42552</v>
       </c>
@@ -6994,7 +6999,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42583</v>
       </c>
@@ -7014,7 +7019,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42614</v>
       </c>
@@ -7034,7 +7039,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>42644</v>
       </c>
@@ -7054,7 +7059,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42675</v>
       </c>
@@ -7074,7 +7079,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42705</v>
       </c>
@@ -7098,7 +7103,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>130</v>
       </c>
@@ -7116,7 +7121,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42736</v>
       </c>
@@ -7136,7 +7141,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42767</v>
       </c>
@@ -7156,7 +7161,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42795</v>
       </c>
@@ -7176,7 +7181,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42826</v>
       </c>
@@ -7196,7 +7201,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42856</v>
       </c>
@@ -7216,7 +7221,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42887</v>
       </c>
@@ -7236,7 +7241,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42917</v>
       </c>
@@ -7256,7 +7261,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42948</v>
       </c>
@@ -7276,7 +7281,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42979</v>
       </c>
@@ -7296,7 +7301,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43009</v>
       </c>
@@ -7316,7 +7321,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43040</v>
       </c>
@@ -7336,7 +7341,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43070</v>
       </c>
@@ -7360,7 +7365,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="48" t="s">
         <v>131</v>
       </c>
@@ -7378,7 +7383,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43101</v>
       </c>
@@ -7398,7 +7403,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43132</v>
       </c>
@@ -7418,7 +7423,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43160</v>
       </c>
@@ -7438,7 +7443,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>43191</v>
       </c>
@@ -7464,7 +7469,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43221</v>
       </c>
@@ -7484,7 +7489,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43252</v>
       </c>
@@ -7504,7 +7509,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43282</v>
       </c>
@@ -7524,7 +7529,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43313</v>
       </c>
@@ -7544,7 +7549,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43344</v>
       </c>
@@ -7564,7 +7569,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43374</v>
       </c>
@@ -7584,7 +7589,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43405</v>
       </c>
@@ -7604,7 +7609,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43435</v>
       </c>
@@ -7624,7 +7629,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="48" t="s">
         <v>132</v>
       </c>
@@ -7642,7 +7647,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43466</v>
       </c>
@@ -7662,7 +7667,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43497</v>
       </c>
@@ -7682,7 +7687,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43525</v>
       </c>
@@ -7702,7 +7707,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43556</v>
       </c>
@@ -7722,7 +7727,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43586</v>
       </c>
@@ -7742,7 +7747,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43617</v>
       </c>
@@ -7762,7 +7767,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43647</v>
       </c>
@@ -7782,7 +7787,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43678</v>
       </c>
@@ -7802,7 +7807,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43709</v>
       </c>
@@ -7822,7 +7827,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43739</v>
       </c>
@@ -7842,7 +7847,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43770</v>
       </c>
@@ -7862,7 +7867,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43800</v>
       </c>
@@ -7886,7 +7891,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="48" t="s">
         <v>133</v>
       </c>
@@ -7904,7 +7909,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43831</v>
       </c>
@@ -7924,7 +7929,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43862</v>
       </c>
@@ -7944,7 +7949,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43891</v>
       </c>
@@ -7964,7 +7969,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43922</v>
       </c>
@@ -7984,7 +7989,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43952</v>
       </c>
@@ -8004,7 +8009,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43983</v>
       </c>
@@ -8024,7 +8029,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>44013</v>
       </c>
@@ -8044,7 +8049,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>44044</v>
       </c>
@@ -8064,7 +8069,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>44075</v>
       </c>
@@ -8084,7 +8089,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44105</v>
       </c>
@@ -8104,7 +8109,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44136</v>
       </c>
@@ -8124,7 +8129,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>44166</v>
       </c>
@@ -8148,7 +8153,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="48" t="s">
         <v>134</v>
       </c>
@@ -8166,7 +8171,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44197</v>
       </c>
@@ -8186,7 +8191,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44228</v>
       </c>
@@ -8206,7 +8211,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44256</v>
       </c>
@@ -8226,7 +8231,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44287</v>
       </c>
@@ -8246,7 +8251,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44317</v>
       </c>
@@ -8266,7 +8271,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44348</v>
       </c>
@@ -8286,7 +8291,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44378</v>
       </c>
@@ -8306,7 +8311,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44409</v>
       </c>
@@ -8326,7 +8331,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44440</v>
       </c>
@@ -8346,7 +8351,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44470</v>
       </c>
@@ -8366,7 +8371,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44501</v>
       </c>
@@ -8386,7 +8391,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44531</v>
       </c>
@@ -8410,7 +8415,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="48" t="s">
         <v>135</v>
       </c>
@@ -8428,7 +8433,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44562</v>
       </c>
@@ -8448,7 +8453,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44593</v>
       </c>
@@ -8468,7 +8473,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44621</v>
       </c>
@@ -8488,7 +8493,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44652</v>
       </c>
@@ -8508,7 +8513,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44682</v>
       </c>
@@ -8528,7 +8533,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44713</v>
       </c>
@@ -8548,7 +8553,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44743</v>
       </c>
@@ -8568,7 +8573,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44774</v>
       </c>
@@ -8588,7 +8593,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44805</v>
       </c>
@@ -8608,7 +8613,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44835</v>
       </c>
@@ -8628,7 +8633,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44866</v>
       </c>
@@ -8648,7 +8653,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44896</v>
       </c>
@@ -8672,7 +8677,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="48" t="s">
         <v>139</v>
       </c>
@@ -8690,9 +8695,9 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -8710,9 +8715,9 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -8730,9 +8735,9 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13">
@@ -8750,9 +8755,9 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13">
@@ -8770,9 +8775,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -8790,135 +8795,153 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B358" s="20"/>
-      <c r="C358" s="13"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D361" s="39"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G361" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G362" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="39"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="39"/>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="39"/>
+        <v>45291</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D364" s="39">
+        <v>5</v>
+      </c>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G364" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="40">
-        <v>45292</v>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -8934,106 +8957,130 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D366" s="39"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G366" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="40"/>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="40">
+        <v>45351</v>
+      </c>
       <c r="B367" s="20"/>
-      <c r="C367" s="13"/>
+      <c r="C367" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D367" s="39"/>
       <c r="E367" s="9"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G367" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="40"/>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="40">
+        <v>45382</v>
+      </c>
       <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
+      <c r="C368" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D368" s="39"/>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G368" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="40"/>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="40">
+        <v>45412</v>
+      </c>
       <c r="B369" s="20"/>
-      <c r="C369" s="13"/>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D369" s="39"/>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G369" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="40"/>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="40">
+        <v>45443</v>
+      </c>
       <c r="B370" s="20"/>
-      <c r="C370" s="13"/>
+      <c r="C370" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G370" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H370" s="39"/>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371" s="40"/>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="40">
+        <v>45473</v>
+      </c>
       <c r="B371" s="20"/>
-      <c r="C371" s="13"/>
+      <c r="C371" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D371" s="39"/>
       <c r="E371" s="9"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G371" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H371" s="39"/>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="40"/>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="40">
+        <v>45504</v>
+      </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
       <c r="D372" s="39"/>
@@ -9048,8 +9095,10 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373" s="40"/>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="40">
+        <v>45535</v>
+      </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
       <c r="D373" s="39"/>
@@ -9064,8 +9113,10 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374" s="40"/>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="40">
+        <v>45565</v>
+      </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
@@ -9080,7 +9131,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -9096,7 +9147,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -9112,7 +9163,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -9128,7 +9179,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -9144,7 +9195,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -9160,7 +9211,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -9176,7 +9227,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -9192,7 +9243,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9208,7 +9259,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9224,7 +9275,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9240,7 +9291,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9256,7 +9307,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9272,7 +9323,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9288,7 +9339,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9304,7 +9355,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -9320,7 +9371,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -9336,7 +9387,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -9352,7 +9403,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -9368,7 +9419,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -9384,7 +9435,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -9400,7 +9451,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -9416,7 +9467,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -9432,7 +9483,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -9448,7 +9499,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -9464,7 +9515,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -9480,7 +9531,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -9496,7 +9547,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -9512,7 +9563,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -9528,7 +9579,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -9544,7 +9595,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -9560,7 +9611,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -9576,7 +9627,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -9592,7 +9643,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -9608,7 +9659,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -9624,7 +9675,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -9640,7 +9691,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -9656,7 +9707,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -9672,7 +9723,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -9688,7 +9739,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -9704,7 +9755,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -9720,7 +9771,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -9736,7 +9787,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -9752,7 +9803,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -9768,7 +9819,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -9784,7 +9835,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -9800,7 +9851,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -9816,7 +9867,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -9832,7 +9883,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -9848,7 +9899,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -9864,7 +9915,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -9880,7 +9931,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -9896,7 +9947,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -9912,7 +9963,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -9928,7 +9979,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -9944,7 +9995,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -9960,7 +10011,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -9976,7 +10027,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -9992,7 +10043,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10008,7 +10059,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10024,7 +10075,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -10040,7 +10091,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -10056,7 +10107,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -10072,7 +10123,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -10088,7 +10139,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -10104,7 +10155,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -10120,7 +10171,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -10136,7 +10187,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -10152,7 +10203,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -10168,7 +10219,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -10184,7 +10235,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -10200,7 +10251,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -10216,7 +10267,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -10232,7 +10283,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -10248,7 +10299,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -10264,7 +10315,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -10280,7 +10331,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -10296,7 +10347,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -10312,7 +10363,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -10328,7 +10379,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -10344,7 +10395,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -10360,7 +10411,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -10376,7 +10427,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -10392,7 +10443,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -10408,7 +10459,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -10424,7 +10475,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -10440,7 +10491,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -10456,7 +10507,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -10472,7 +10523,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -10488,7 +10539,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -10504,7 +10555,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -10520,7 +10571,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -10536,7 +10587,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -10552,7 +10603,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -10568,7 +10619,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -10584,7 +10635,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -10600,7 +10651,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -10616,7 +10667,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -10632,7 +10683,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -10648,7 +10699,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -10664,7 +10715,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -10680,7 +10731,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -10696,7 +10747,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -10712,7 +10763,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -10728,7 +10779,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -10744,7 +10795,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -10760,7 +10811,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -10776,7 +10827,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -10792,7 +10843,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -10808,7 +10859,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -10824,7 +10875,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -10840,7 +10891,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -10856,7 +10907,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -10872,7 +10923,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -10888,7 +10939,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -10904,7 +10955,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -10920,7 +10971,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -10936,7 +10987,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -10952,7 +11003,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -10968,7 +11019,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -10984,7 +11035,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -11000,7 +11051,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -11016,7 +11067,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -11032,7 +11083,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -11048,7 +11099,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -11064,7 +11115,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -11080,7 +11131,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -11096,7 +11147,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -11112,7 +11163,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -11128,7 +11179,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -11144,7 +11195,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -11160,7 +11211,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -11176,7 +11227,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -11192,7 +11243,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -11208,7 +11259,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -11224,7 +11275,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -11240,7 +11291,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -11256,7 +11307,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -11272,7 +11323,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -11288,7 +11339,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -11304,7 +11355,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -11320,7 +11371,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -11336,7 +11387,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -11352,7 +11403,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -11368,7 +11419,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -11384,7 +11435,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -11400,7 +11451,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -11416,7 +11467,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -11432,7 +11483,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -11448,7 +11499,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -11464,7 +11515,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -11480,7 +11531,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -11496,7 +11547,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -11512,7 +11563,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -11528,7 +11579,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -11544,7 +11595,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -11560,7 +11611,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -11576,7 +11627,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -11592,7 +11643,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -11608,7 +11659,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -11624,7 +11675,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -11640,7 +11691,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -11656,7 +11707,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -11672,7 +11723,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -11688,7 +11739,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -11704,7 +11755,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -11720,7 +11771,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -11736,7 +11787,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -11752,7 +11803,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -11768,7 +11819,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -11784,7 +11835,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -11800,7 +11851,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -11816,7 +11867,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -11832,7 +11883,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -11848,7 +11899,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -11864,7 +11915,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -11880,7 +11931,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -11896,7 +11947,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -11912,7 +11963,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -11928,7 +11979,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -11944,7 +11995,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -11960,7 +12011,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -11976,7 +12027,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -11992,7 +12043,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -12008,7 +12059,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -12024,7 +12075,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -12040,7 +12091,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -12056,7 +12107,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -12072,7 +12123,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -12088,7 +12139,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -12104,7 +12155,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -12120,7 +12171,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -12136,7 +12187,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -12152,7 +12203,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -12168,7 +12219,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -12184,7 +12235,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -12200,7 +12251,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -12216,7 +12267,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -12232,7 +12283,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -12248,7 +12299,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -12264,7 +12315,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -12280,7 +12331,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -12296,7 +12347,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -12312,7 +12363,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -12328,7 +12379,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -12344,7 +12395,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -12360,7 +12411,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -12376,7 +12427,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -12392,7 +12443,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -12408,7 +12459,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -12424,7 +12475,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -12440,7 +12491,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -12456,7 +12507,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -12472,7 +12523,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -12488,7 +12539,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -12504,7 +12555,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -12520,7 +12571,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -12536,7 +12587,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -12552,7 +12603,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -12568,7 +12619,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -12584,7 +12635,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -12600,7 +12651,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -12616,7 +12667,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -12632,7 +12683,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -12648,7 +12699,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -12664,7 +12715,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -12680,7 +12731,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -12696,7 +12747,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -12712,7 +12763,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -12728,7 +12779,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -12744,7 +12795,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -12760,7 +12811,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -12776,7 +12827,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -12792,7 +12843,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -12808,7 +12859,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -12824,7 +12875,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -12840,7 +12891,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -12856,7 +12907,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -12872,7 +12923,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -12888,7 +12939,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -12904,7 +12955,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -12920,7 +12971,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -12936,7 +12987,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -12952,7 +13003,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -12968,7 +13019,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -12984,7 +13035,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -13000,7 +13051,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -13016,7 +13067,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -13032,7 +13083,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -13048,7 +13099,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -13064,7 +13115,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -13080,7 +13131,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -13096,21 +13147,37 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A626" s="41"/>
-      <c r="B626" s="15"/>
-      <c r="C626" s="42"/>
-      <c r="D626" s="43"/>
-      <c r="E626" s="49"/>
-      <c r="F626" s="15"/>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="40"/>
+      <c r="B626" s="20"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="39"/>
+      <c r="E626" s="9"/>
+      <c r="F626" s="20"/>
       <c r="G626" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H626" s="43"/>
-      <c r="I626" s="49"/>
-      <c r="J626" s="12"/>
-      <c r="K626" s="15"/>
+      <c r="H626" s="39"/>
+      <c r="I626" s="9"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="20"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" s="41"/>
+      <c r="B627" s="15"/>
+      <c r="C627" s="42"/>
+      <c r="D627" s="43"/>
+      <c r="E627" s="49"/>
+      <c r="F627" s="15"/>
+      <c r="G627" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H627" s="43"/>
+      <c r="I627" s="49"/>
+      <c r="J627" s="12"/>
+      <c r="K627" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13127,10 +13194,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13153,28 +13220,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -13187,7 +13254,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13216,7 +13283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -13236,17 +13303,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13267,7 +13337,11 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>429.46</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13294,7 +13368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13320,7 +13394,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13346,7 +13420,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13372,7 +13446,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13398,7 +13472,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13424,7 +13498,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13450,7 +13524,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13476,7 +13550,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13496,7 +13570,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13516,7 +13590,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13536,7 +13610,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13557,7 +13631,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13578,7 +13652,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13599,7 +13673,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13620,7 +13694,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13641,7 +13715,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13662,7 +13736,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13683,7 +13757,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13704,7 +13778,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13725,7 +13799,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13746,7 +13820,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13767,7 +13841,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13788,7 +13862,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13809,7 +13883,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13830,7 +13904,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13851,7 +13925,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13872,7 +13946,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13893,7 +13967,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13914,7 +13988,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13935,7 +14009,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13956,7 +14030,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13965,7 +14039,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13974,7 +14048,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13983,7 +14057,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13992,7 +14066,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14001,7 +14075,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14010,7 +14084,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14019,7 +14093,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14028,7 +14102,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14037,7 +14111,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14046,7 +14120,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14055,7 +14129,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14064,7 +14138,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14073,7 +14147,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14082,7 +14156,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14091,7 +14165,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14100,7 +14174,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14109,7 +14183,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14118,7 +14192,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14127,7 +14201,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14136,7 +14210,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14145,7 +14219,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14154,7 +14228,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14163,7 +14237,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14172,7 +14246,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14181,7 +14255,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14190,7 +14264,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14199,7 +14273,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14208,7 +14282,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14217,7 +14291,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
